--- a/data/trans_dic/P36$fruta-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0464994742447077</v>
+        <v>0.04737898777663761</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08227800499691933</v>
+        <v>0.08290702780092793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09581810427160882</v>
+        <v>0.09517528116103184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08129473046042844</v>
+        <v>0.08185460064565746</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08092733357998573</v>
+        <v>0.08005449989840409</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.110987412938303</v>
+        <v>0.1114623503449566</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07422207284980245</v>
+        <v>0.07264808749963707</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08626538766133798</v>
+        <v>0.08624706973047011</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.109136229108522</v>
+        <v>0.1092254935783475</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09144106458858163</v>
+        <v>0.09087907543043314</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1228704754412004</v>
+        <v>0.1226089506318387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1351347195957667</v>
+        <v>0.1338270561821916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1219911985817155</v>
+        <v>0.1201759628871326</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1182664767589536</v>
+        <v>0.1178164003324754</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.149330084759201</v>
+        <v>0.1493457009185995</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1025093253514855</v>
+        <v>0.1035206963157151</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1130231824043259</v>
+        <v>0.1151783635939209</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1370788639106872</v>
+        <v>0.1369207735446809</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05583056258314561</v>
+        <v>0.05423661447337261</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09947758636755291</v>
+        <v>0.09977963585530476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1089322839513206</v>
+        <v>0.109588338285133</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07789476438985547</v>
+        <v>0.07810621489671629</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1218575398596624</v>
+        <v>0.1216411227214755</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1121153177138863</v>
+        <v>0.110289367980977</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07164269420652347</v>
+        <v>0.07111542578869566</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1178796877507031</v>
+        <v>0.1177449464101175</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1170291226612331</v>
+        <v>0.1161980556211826</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08949250477322268</v>
+        <v>0.08678167445461382</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1418473931632459</v>
+        <v>0.1438622889356446</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1515877509871404</v>
+        <v>0.1519898413239502</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1174093638163984</v>
+        <v>0.1146846894766144</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.165734509071112</v>
+        <v>0.1654004788489525</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1544931559707705</v>
+        <v>0.1523965116528407</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09732505444237938</v>
+        <v>0.09649979692373557</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1481217090279821</v>
+        <v>0.1473976055334898</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1466482317840861</v>
+        <v>0.1476821848589091</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06412374529304768</v>
+        <v>0.06183666400148783</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1072883922130004</v>
+        <v>0.1077871425230928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1005098578179779</v>
+        <v>0.1005119963643107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09609247252183978</v>
+        <v>0.09628792238462058</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09644639811129489</v>
+        <v>0.0964595026957429</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.111563749028978</v>
+        <v>0.1133255073057988</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08257984974597832</v>
+        <v>0.08341709401917094</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1087511003632135</v>
+        <v>0.1070789168456029</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1128546867884676</v>
+        <v>0.1134798941408024</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09728046783951183</v>
+        <v>0.09540198001401444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1571824664052955</v>
+        <v>0.1551484589654957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1454089439899026</v>
+        <v>0.1469348673770642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1361541266626478</v>
+        <v>0.1394373910188625</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1423917922073978</v>
+        <v>0.1407297627512444</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1639614719144735</v>
+        <v>0.1647707148909222</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1090818386823766</v>
+        <v>0.1098531490071676</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1403024017301945</v>
+        <v>0.1411135080749072</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1457256578867097</v>
+        <v>0.1468713410990812</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09912572863118935</v>
+        <v>0.100017417349251</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.108996831540451</v>
+        <v>0.1076938468320283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1420257698877687</v>
+        <v>0.1431254710435522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1038808033014064</v>
+        <v>0.101439665732243</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1343810969896083</v>
+        <v>0.1368469311467024</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1091069056610401</v>
+        <v>0.1103887523177988</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1109081357840012</v>
+        <v>0.1093294092733596</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1283889591447646</v>
+        <v>0.1299287811935694</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1346652702580073</v>
+        <v>0.1358892066425874</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1635337105495357</v>
+        <v>0.1641864768864225</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.179844217219001</v>
+        <v>0.1772471610486534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2091680992780517</v>
+        <v>0.2132770674250867</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1786690936792829</v>
+        <v>0.1808429163239724</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2082539914559165</v>
+        <v>0.2128511299686471</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1737995451957752</v>
+        <v>0.1723850739509317</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1601321686238903</v>
+        <v>0.1582889352127941</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1805580980131481</v>
+        <v>0.1794867982642208</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1801871715906715</v>
+        <v>0.1826245790255073</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07154587573362242</v>
+        <v>0.07214477048310844</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1096497417274732</v>
+        <v>0.1086140747159388</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1177220881364038</v>
+        <v>0.118210942989463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09678784388578207</v>
+        <v>0.09646725668314828</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1151700913336591</v>
+        <v>0.1152254959316618</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.121425455754371</v>
+        <v>0.1215513120376067</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08729736645042656</v>
+        <v>0.0867319353963822</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1147680053930989</v>
+        <v>0.1149748570641033</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1233482349036928</v>
+        <v>0.1229118868746348</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09100093957894746</v>
+        <v>0.09067049714451446</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1324473341886049</v>
+        <v>0.1323131552769921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1425131264702891</v>
+        <v>0.141174141930645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1192379584377972</v>
+        <v>0.1174641576218941</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1381387851978714</v>
+        <v>0.138256100659457</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1445845973126974</v>
+        <v>0.1449390759971421</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1025381251171864</v>
+        <v>0.101741022963974</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1313371254942861</v>
+        <v>0.1314293577068837</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1397111554815613</v>
+        <v>0.1401716872184956</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27162</v>
+        <v>27676</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>85647</v>
+        <v>86302</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>107979</v>
+        <v>107254</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>74981</v>
+        <v>75497</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>90390</v>
+        <v>89415</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>139795</v>
+        <v>140394</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>111814</v>
+        <v>109442</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>186150</v>
+        <v>186110</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>260451</v>
+        <v>260664</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53414</v>
+        <v>53086</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>127902</v>
+        <v>127629</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>152285</v>
+        <v>150812</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>112517</v>
+        <v>110842</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>132095</v>
+        <v>131592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>188090</v>
+        <v>188110</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>154428</v>
+        <v>155951</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>243890</v>
+        <v>248540</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>327135</v>
+        <v>326758</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>60008</v>
+        <v>58294</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97010</v>
+        <v>97305</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>98783</v>
+        <v>99378</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>82225</v>
+        <v>82448</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>133344</v>
+        <v>133107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>112601</v>
+        <v>110767</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>152628</v>
+        <v>151505</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>243947</v>
+        <v>243669</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>223662</v>
+        <v>222074</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>96188</v>
+        <v>93274</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>138329</v>
+        <v>140294</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>137464</v>
+        <v>137829</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>123936</v>
+        <v>121060</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>181357</v>
+        <v>180991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>155163</v>
+        <v>153057</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>207342</v>
+        <v>205584</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>306532</v>
+        <v>305034</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>280269</v>
+        <v>282245</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>71744</v>
+        <v>69185</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>94963</v>
+        <v>95404</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82706</v>
+        <v>82708</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>95407</v>
+        <v>95601</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>84355</v>
+        <v>84367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>86022</v>
+        <v>87381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>174385</v>
+        <v>176153</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>191375</v>
+        <v>188432</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>179882</v>
+        <v>180879</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>108841</v>
+        <v>106740</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>139125</v>
+        <v>137324</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>119652</v>
+        <v>120908</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>135183</v>
+        <v>138443</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>124541</v>
+        <v>123087</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>126424</v>
+        <v>127048</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>230349</v>
+        <v>231978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>246897</v>
+        <v>248324</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>232276</v>
+        <v>234102</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44240</v>
+        <v>44638</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54714</v>
+        <v>54060</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71965</v>
+        <v>72522</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35440</v>
+        <v>34607</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>60576</v>
+        <v>61687</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>53308</v>
+        <v>53934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>87336</v>
+        <v>86093</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>122323</v>
+        <v>123790</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>134030</v>
+        <v>135249</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72985</v>
+        <v>73277</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90279</v>
+        <v>88975</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>105986</v>
+        <v>108068</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60954</v>
+        <v>61696</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>93876</v>
+        <v>95948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>84916</v>
+        <v>84225</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>126098</v>
+        <v>124646</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>172028</v>
+        <v>171007</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>179338</v>
+        <v>181764</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>230671</v>
+        <v>232602</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>373165</v>
+        <v>369640</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>395936</v>
+        <v>397580</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>320556</v>
+        <v>319494</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>407310</v>
+        <v>407506</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>427847</v>
+        <v>428291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>570580</v>
+        <v>566884</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>796472</v>
+        <v>797907</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>849481</v>
+        <v>846476</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>293396</v>
+        <v>292331</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>450750</v>
+        <v>450294</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>479316</v>
+        <v>474813</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>394909</v>
+        <v>389035</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>488541</v>
+        <v>488956</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>509450</v>
+        <v>510699</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>670194</v>
+        <v>664984</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>911459</v>
+        <v>912099</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>962170</v>
+        <v>965342</v>
       </c>
     </row>
     <row r="24">
